--- a/Raspored-provera/1-3.xlsx
+++ b/Raspored-provera/1-3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Предмет</t>
   </si>
@@ -102,6 +102,21 @@
   </si>
   <si>
     <t>27. 2. 2024.</t>
+  </si>
+  <si>
+    <t>Енглески језик</t>
+  </si>
+  <si>
+    <t>тестирање</t>
+  </si>
+  <si>
+    <t>1. 3. 2024.</t>
+  </si>
+  <si>
+    <t>1/03</t>
+  </si>
+  <si>
+    <t>Unit 3 - vocabulary and grammar</t>
   </si>
   <si>
     <t>Српски језик и књижевност</t>
@@ -456,7 +471,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,6 +622,23 @@
       </c>
       <c r="F8" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Raspored-provera/1-3.xlsx
+++ b/Raspored-provera/1-3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Предмет</t>
   </si>
@@ -132,6 +132,24 @@
   </si>
   <si>
     <t>Хеленска књижевност</t>
+  </si>
+  <si>
+    <t>20. 3. 2024.</t>
+  </si>
+  <si>
+    <t>4/03</t>
+  </si>
+  <si>
+    <t>Линерне једначине и неједначине</t>
+  </si>
+  <si>
+    <t>7. 6. 2024.</t>
+  </si>
+  <si>
+    <t>2/06</t>
+  </si>
+  <si>
+    <t>Књижевност - одабрана дела путем аналитичког приступа и подстицаја критичког мишљења;</t>
   </si>
 </sst>
 </file>
@@ -471,7 +489,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,6 +657,40 @@
       </c>
       <c r="F9" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Raspored-provera/1-3.xlsx
+++ b/Raspored-provera/1-3.xlsx
@@ -125,13 +125,13 @@
     <t>писмени задатак</t>
   </si>
   <si>
-    <t>8. 3. 2024.</t>
-  </si>
-  <si>
-    <t>2/03</t>
-  </si>
-  <si>
-    <t>Хеленска књижевност</t>
+    <t>15. 3. 2024.</t>
+  </si>
+  <si>
+    <t>3/03</t>
+  </si>
+  <si>
+    <t>Хеленска књижевност и Сумерско-вавилонска књижевност</t>
   </si>
   <si>
     <t>20. 3. 2024.</t>
